--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2269400.572931978</v>
+        <v>-2271904.322255762</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10786967.38985886</v>
+        <v>10786967.38985885</v>
       </c>
     </row>
     <row r="8">
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>354.3148709887956</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>343.725020838471</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>370.9723492900498</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>395.9180249594995</v>
       </c>
       <c r="G11" t="n">
         <v>399.9637048712415</v>
@@ -1388,7 +1388,7 @@
         <v>283.6497436051085</v>
       </c>
       <c r="I11" t="n">
-        <v>30.61890899071393</v>
+        <v>30.61890899071398</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>338.282947935201</v>
       </c>
       <c r="X11" t="n">
-        <v>358.7730798962571</v>
+        <v>313.5807294129116</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.3831527774084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,16 +1528,16 @@
         <v>168.8739593997253</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.2888003164159</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>137.6574522360004</v>
       </c>
       <c r="E13" t="n">
         <v>135.4759418643572</v>
       </c>
       <c r="F13" t="n">
-        <v>134.4630272407192</v>
+        <v>134.4630272407193</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>133.7969941321088</v>
       </c>
       <c r="I13" t="n">
-        <v>85.39439962762609</v>
+        <v>85.39439962762611</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.97413188783534</v>
+        <v>77.97413188783536</v>
       </c>
       <c r="S13" t="n">
         <v>178.8110045492299</v>
       </c>
       <c r="T13" t="n">
-        <v>208.5909284939572</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.2538174234009</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>241.179622541616</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.71545197395902</v>
+        <v>202.6139453388998</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.7556551813271</v>
+        <v>348.7556551813273</v>
       </c>
       <c r="C14" t="n">
-        <v>331.2947052888541</v>
+        <v>331.2947052888543</v>
       </c>
       <c r="D14" t="n">
-        <v>320.7048551385295</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>372.897859259558</v>
+        <v>372.8978592595582</v>
       </c>
       <c r="G14" t="n">
-        <v>376.9435391713</v>
+        <v>376.9435391713002</v>
       </c>
       <c r="H14" t="n">
-        <v>231.2910815925473</v>
+        <v>246.8133863764588</v>
       </c>
       <c r="I14" t="n">
-        <v>7.598743290772575</v>
+        <v>7.598743290772688</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.20957530602243</v>
+        <v>75.20957530602257</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>169.9397836574669</v>
       </c>
       <c r="U14" t="n">
-        <v>217.0169854767486</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>293.7740719879815</v>
+        <v>293.7740719879816</v>
       </c>
       <c r="W14" t="n">
-        <v>315.2627822352596</v>
+        <v>315.2627822352597</v>
       </c>
       <c r="X14" t="n">
-        <v>335.7529141963156</v>
+        <v>335.7529141963158</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>352.2597521739003</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.8537936997839</v>
+        <v>145.853793699784</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2686346164744</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.637286536059</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>112.4557761644158</v>
+        <v>112.4557761644159</v>
       </c>
       <c r="F16" t="n">
-        <v>111.4428615407778</v>
+        <v>111.442861540778</v>
       </c>
       <c r="G16" t="n">
-        <v>7.760695758071485</v>
+        <v>132.047621776875</v>
       </c>
       <c r="H16" t="n">
-        <v>110.7768284321674</v>
+        <v>110.7768284321675</v>
       </c>
       <c r="I16" t="n">
-        <v>62.37423392768471</v>
+        <v>62.37423392768483</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95396618789394</v>
+        <v>54.95396618789407</v>
       </c>
       <c r="S16" t="n">
-        <v>155.7908388492885</v>
+        <v>93.83907118900049</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>185.5707627940159</v>
       </c>
       <c r="U16" t="n">
-        <v>252.2336517234595</v>
+        <v>252.2336517234596</v>
       </c>
       <c r="V16" t="n">
-        <v>218.1594568416746</v>
+        <v>218.1594568416747</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5448118544376</v>
+        <v>252.5448118544377</v>
       </c>
       <c r="X16" t="n">
-        <v>191.7314689068837</v>
+        <v>191.7314689068839</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.6064668699414</v>
+        <v>184.6064668699415</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.5409587797072</v>
+        <v>301.7805185627348</v>
       </c>
       <c r="C17" t="n">
         <v>284.3195686702617</v>
@@ -1901,7 +1901,7 @@
         <v>170.0418488581561</v>
       </c>
       <c r="V17" t="n">
-        <v>246.7989353693891</v>
+        <v>12.55937558636161</v>
       </c>
       <c r="W17" t="n">
         <v>268.2876456166672</v>
@@ -1910,7 +1910,7 @@
         <v>288.7777775777232</v>
       </c>
       <c r="Y17" t="n">
-        <v>305.2846155553077</v>
+        <v>305.2846155553078</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.87865708119145</v>
+        <v>98.87865708119146</v>
       </c>
       <c r="C19" t="n">
-        <v>86.29349799788199</v>
+        <v>86.293497997882</v>
       </c>
       <c r="D19" t="n">
-        <v>67.66214991746651</v>
+        <v>67.66214991746652</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>65.48063954582334</v>
       </c>
       <c r="F19" t="n">
-        <v>64.4677249221854</v>
+        <v>64.46772492218541</v>
       </c>
       <c r="G19" t="n">
-        <v>98.49417147218303</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>63.80169181357493</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>15.39909730909226</v>
+        <v>28.82078362299234</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>7.978829569301496</v>
       </c>
       <c r="S19" t="n">
-        <v>108.815702230696</v>
+        <v>108.8157022306961</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5956261754233</v>
+        <v>138.5956261754234</v>
       </c>
       <c r="U19" t="n">
         <v>205.258515104867</v>
@@ -2068,7 +2068,7 @@
         <v>144.7563322882913</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.6313302513489</v>
+        <v>137.631330251349</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>284.3195686702617</v>
       </c>
       <c r="D20" t="n">
-        <v>273.7297185199371</v>
+        <v>39.49015873690918</v>
       </c>
       <c r="E20" t="n">
         <v>300.977046971516</v>
@@ -2144,10 +2144,10 @@
         <v>268.2876456166672</v>
       </c>
       <c r="X20" t="n">
-        <v>54.5382177946934</v>
+        <v>288.7777775777232</v>
       </c>
       <c r="Y20" t="n">
-        <v>305.2846155553077</v>
+        <v>305.2846155553078</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>98.87865708119146</v>
       </c>
       <c r="C22" t="n">
-        <v>86.29349799788199</v>
+        <v>86.293497997882</v>
       </c>
       <c r="D22" t="n">
-        <v>67.66214991746651</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>65.48063954582332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>64.4677249221854</v>
+        <v>64.46772492218541</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>85.07248515828239</v>
       </c>
       <c r="H22" t="n">
-        <v>63.80169181357493</v>
+        <v>63.80169181357495</v>
       </c>
       <c r="I22" t="n">
-        <v>15.39909730909226</v>
+        <v>15.39909730909228</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.978829569301496</v>
+        <v>7.97882956930151</v>
       </c>
       <c r="S22" t="n">
-        <v>108.815702230696</v>
+        <v>122.2373885445959</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5956261754233</v>
+        <v>138.5956261754234</v>
       </c>
       <c r="U22" t="n">
         <v>205.258515104867</v>
@@ -2302,10 +2302,10 @@
         <v>205.5696752358452</v>
       </c>
       <c r="X22" t="n">
-        <v>158.1780186021918</v>
+        <v>144.7563322882913</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.6313302513489</v>
+        <v>137.631330251349</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2384,7 @@
         <v>288.7777775777232</v>
       </c>
       <c r="Y23" t="n">
-        <v>305.2846155553077</v>
+        <v>305.2846155553078</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>98.87865708119146</v>
       </c>
       <c r="C25" t="n">
-        <v>86.29349799788199</v>
+        <v>86.293497997882</v>
       </c>
       <c r="D25" t="n">
-        <v>67.66214991746651</v>
+        <v>67.66214991746652</v>
       </c>
       <c r="E25" t="n">
-        <v>65.48063954582332</v>
+        <v>65.48063954582334</v>
       </c>
       <c r="F25" t="n">
-        <v>64.4677249221854</v>
+        <v>64.46772492218541</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>63.80169181357493</v>
+        <v>63.80169181357495</v>
       </c>
       <c r="I25" t="n">
-        <v>15.39909730909226</v>
+        <v>15.39909730909228</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.978829569301496</v>
+        <v>7.97882956930151</v>
       </c>
       <c r="S25" t="n">
-        <v>108.815702230696</v>
+        <v>108.8157022306961</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5956261754233</v>
+        <v>138.5956261754234</v>
       </c>
       <c r="U25" t="n">
-        <v>205.258515104867</v>
+        <v>218.6802014187665</v>
       </c>
       <c r="V25" t="n">
-        <v>184.6060065369821</v>
+        <v>171.1843202230822</v>
       </c>
       <c r="W25" t="n">
         <v>205.5696752358452</v>
       </c>
       <c r="X25" t="n">
-        <v>144.7563322882913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.6313302513489</v>
+        <v>137.631330251349</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>312.7385393449467</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2775894524737</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D26" t="n">
         <v>284.6877393021491</v>
@@ -2612,7 +2612,7 @@
         <v>180.9998696403681</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7569561516011</v>
+        <v>257.756956151601</v>
       </c>
       <c r="W26" t="n">
         <v>279.2456663988792</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247707</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>109.8366778634034</v>
       </c>
       <c r="C28" t="n">
-        <v>97.25151878009397</v>
+        <v>97.25151878009396</v>
       </c>
       <c r="D28" t="n">
-        <v>78.6201706996785</v>
+        <v>78.62017069967848</v>
       </c>
       <c r="E28" t="n">
-        <v>76.43866032803531</v>
+        <v>76.4386603280353</v>
       </c>
       <c r="F28" t="n">
-        <v>75.42574570439739</v>
+        <v>75.42574570439737</v>
       </c>
       <c r="G28" t="n">
-        <v>96.03050594049436</v>
+        <v>96.03050594049435</v>
       </c>
       <c r="H28" t="n">
-        <v>74.75971259578692</v>
+        <v>74.75971259578691</v>
       </c>
       <c r="I28" t="n">
-        <v>26.35711809130425</v>
+        <v>26.35711809130424</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.93685035151348</v>
+        <v>18.93685035151347</v>
       </c>
       <c r="S28" t="n">
-        <v>119.7737230129081</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T28" t="n">
-        <v>149.5536469576354</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U28" t="n">
         <v>216.216535887079</v>
       </c>
       <c r="V28" t="n">
-        <v>182.1423410052942</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W28" t="n">
-        <v>216.5276960180572</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X28" t="n">
         <v>155.7143530705033</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.2977551524149</v>
@@ -3035,7 +3035,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3193,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124547</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3253,7 +3253,7 @@
         <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
         <v>69.56210087052281</v>
@@ -3430,16 +3430,16 @@
         <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>110.548026295317</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>170.2318734253259</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3664,13 +3664,13 @@
         <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285827</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>68.3410880309232</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>92.08430510333687</v>
@@ -3715,19 +3715,19 @@
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>239.4866237999596</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>89.94326605922006</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>164.0711673124582</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>188.838278108486</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309233</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333699</v>
+        <v>135.6235431859976</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7340562419011</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1493.049741982012</v>
+        <v>1909.792674568632</v>
       </c>
       <c r="C11" t="n">
-        <v>1135.155932902421</v>
+        <v>1909.792674568632</v>
       </c>
       <c r="D11" t="n">
-        <v>787.9589421564904</v>
+        <v>1562.595683822702</v>
       </c>
       <c r="E11" t="n">
-        <v>787.9589421564904</v>
+        <v>1187.876139085278</v>
       </c>
       <c r="F11" t="n">
-        <v>787.9589421564904</v>
+        <v>787.9589421564903</v>
       </c>
       <c r="G11" t="n">
-        <v>383.9551998623072</v>
+        <v>383.9551998623069</v>
       </c>
       <c r="H11" t="n">
-        <v>97.44030733189459</v>
+        <v>97.44030733189453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,10 +5057,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5081,10 +5081,10 @@
         <v>2226.540886096825</v>
       </c>
       <c r="X11" t="n">
-        <v>1864.143835696566</v>
+        <v>1909.792674568632</v>
       </c>
       <c r="Y11" t="n">
-        <v>1493.049741982012</v>
+        <v>1909.792674568632</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.5831900330029</v>
+        <v>857.4985966516053</v>
       </c>
       <c r="C13" t="n">
-        <v>560.5831900330029</v>
+        <v>699.6311215845186</v>
       </c>
       <c r="D13" t="n">
-        <v>560.5831900330029</v>
+        <v>560.583190033003</v>
       </c>
       <c r="E13" t="n">
         <v>423.73880431143</v>
@@ -5194,22 +5194,22 @@
         <v>152.7690857530179</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>122.4831894535089</v>
+        <v>122.4831894535088</v>
       </c>
       <c r="K13" t="n">
-        <v>337.3188129767751</v>
+        <v>337.318812976775</v>
       </c>
       <c r="L13" t="n">
-        <v>664.7270519996613</v>
+        <v>664.7270519996609</v>
       </c>
       <c r="M13" t="n">
         <v>1019.7325381736</v>
       </c>
       <c r="N13" t="n">
-        <v>1371.989355453855</v>
+        <v>1371.989355453854</v>
       </c>
       <c r="O13" t="n">
         <v>1682.167394948658</v>
@@ -5218,31 +5218,31 @@
         <v>1925.623335956707</v>
       </c>
       <c r="Q13" t="n">
-        <v>2014.082072683612</v>
+        <v>2014.082072683611</v>
       </c>
       <c r="R13" t="n">
-        <v>1935.32032330196</v>
+        <v>1935.320323301959</v>
       </c>
       <c r="S13" t="n">
         <v>1754.703146989606</v>
       </c>
       <c r="T13" t="n">
-        <v>1544.005239419953</v>
+        <v>1754.703146989606</v>
       </c>
       <c r="U13" t="n">
-        <v>1265.971080406417</v>
+        <v>1754.703146989606</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.35530006135</v>
+        <v>1511.087366644539</v>
       </c>
       <c r="W13" t="n">
-        <v>744.0068378852094</v>
+        <v>1232.738904468398</v>
       </c>
       <c r="X13" t="n">
-        <v>744.0068378852094</v>
+        <v>1232.738904468398</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.1629470024225</v>
+        <v>1028.078353621025</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1723.815938393357</v>
+        <v>1415.550736014955</v>
       </c>
       <c r="C14" t="n">
-        <v>1389.174821939969</v>
+        <v>1080.909619561567</v>
       </c>
       <c r="D14" t="n">
-        <v>1065.230523820242</v>
+        <v>1080.909619561567</v>
       </c>
       <c r="E14" t="n">
-        <v>1065.230523820242</v>
+        <v>1080.909619561567</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5660195176584</v>
+        <v>704.2451152589825</v>
       </c>
       <c r="G14" t="n">
-        <v>307.8149698496786</v>
+        <v>323.4940655910033</v>
       </c>
       <c r="H14" t="n">
-        <v>74.18761470569106</v>
+        <v>74.18761470569135</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3249.636553623289</v>
+        <v>3249.63655362329</v>
       </c>
       <c r="T14" t="n">
-        <v>3249.636553623289</v>
+        <v>3077.980206494536</v>
       </c>
       <c r="U14" t="n">
-        <v>3030.427477384149</v>
+        <v>3077.980206494536</v>
       </c>
       <c r="V14" t="n">
-        <v>2733.685990527602</v>
+        <v>2781.238719637989</v>
       </c>
       <c r="W14" t="n">
-        <v>2415.238735744512</v>
+        <v>2462.791464854898</v>
       </c>
       <c r="X14" t="n">
-        <v>2076.094377970455</v>
+        <v>2123.647107080842</v>
       </c>
       <c r="Y14" t="n">
-        <v>2076.094377970455</v>
+        <v>1767.829175592053</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>725.8215275187</v>
+        <v>600.9538556664472</v>
       </c>
       <c r="C16" t="n">
-        <v>591.2067450778168</v>
+        <v>600.9538556664472</v>
       </c>
       <c r="D16" t="n">
-        <v>475.4115061525047</v>
+        <v>600.9538556664472</v>
       </c>
       <c r="E16" t="n">
-        <v>361.8198130571352</v>
+        <v>487.3621625710776</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2512660462476</v>
+        <v>374.7936155601908</v>
       </c>
       <c r="G16" t="n">
-        <v>241.412179421933</v>
+        <v>241.4121794219332</v>
       </c>
       <c r="H16" t="n">
-        <v>129.5163931268144</v>
+        <v>129.5163931268145</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>145.2731534964508</v>
+        <v>145.273153496451</v>
       </c>
       <c r="K16" t="n">
-        <v>382.898741062659</v>
+        <v>382.8987410626592</v>
       </c>
       <c r="L16" t="n">
-        <v>733.0969441284869</v>
+        <v>733.0969441284872</v>
       </c>
       <c r="M16" t="n">
         <v>1110.892394345368</v>
@@ -5449,37 +5449,37 @@
         <v>1485.939175668564</v>
       </c>
       <c r="O16" t="n">
-        <v>1818.90717920631</v>
+        <v>1818.907179206309</v>
       </c>
       <c r="P16" t="n">
-        <v>2085.153084257301</v>
+        <v>2085.1530842573</v>
       </c>
       <c r="Q16" t="n">
-        <v>2196.401785027148</v>
+        <v>2196.401785027147</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.892728271699</v>
+        <v>2140.892728271698</v>
       </c>
       <c r="S16" t="n">
-        <v>1983.528244585549</v>
+        <v>2046.105787676748</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.528244585549</v>
+        <v>1858.660572733297</v>
       </c>
       <c r="U16" t="n">
-        <v>1728.746778198216</v>
+        <v>1603.879106345964</v>
       </c>
       <c r="V16" t="n">
-        <v>1508.383690479353</v>
+        <v>1383.516018627101</v>
       </c>
       <c r="W16" t="n">
-        <v>1253.287920929416</v>
+        <v>1128.420249077164</v>
       </c>
       <c r="X16" t="n">
-        <v>1059.619770518422</v>
+        <v>934.75209866617</v>
       </c>
       <c r="Y16" t="n">
-        <v>873.1485918619161</v>
+        <v>748.2809200096634</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1525.352855797538</v>
       </c>
       <c r="D17" t="n">
-        <v>1248.858190625884</v>
+        <v>1248.858190625885</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8409714627367</v>
+        <v>944.8409714627373</v>
       </c>
       <c r="F17" t="n">
-        <v>615.626100108226</v>
+        <v>615.6261001082266</v>
       </c>
       <c r="G17" t="n">
         <v>282.3246833883194</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5546,19 +5546,19 @@
         <v>3172.879472390681</v>
       </c>
       <c r="U17" t="n">
-        <v>3001.120029099615</v>
+        <v>3001.120029099616</v>
       </c>
       <c r="V17" t="n">
-        <v>2751.828175191141</v>
+        <v>2988.433791133594</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.830553356123</v>
+        <v>2717.436169298576</v>
       </c>
       <c r="X17" t="n">
-        <v>2189.13582853014</v>
+        <v>2425.741444472593</v>
       </c>
       <c r="Y17" t="n">
-        <v>1880.767529989425</v>
+        <v>2117.373145931878</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>614.5447387341565</v>
+        <v>696.3157721692528</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3795892413464</v>
+        <v>609.1506226764427</v>
       </c>
       <c r="D19" t="n">
-        <v>459.0339832641075</v>
+        <v>540.8050166992037</v>
       </c>
       <c r="E19" t="n">
-        <v>311.1208896817143</v>
+        <v>474.6629565519074</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0019756189008</v>
+        <v>409.5440424890939</v>
       </c>
       <c r="G19" t="n">
-        <v>146.5129135257866</v>
+        <v>241.8412058638129</v>
       </c>
       <c r="H19" t="n">
-        <v>82.06676017874126</v>
+        <v>95.62401908167064</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1919.235124281118</v>
       </c>
       <c r="S19" t="n">
-        <v>1727.549240107943</v>
+        <v>1809.320273543041</v>
       </c>
       <c r="T19" t="n">
-        <v>1587.553658112566</v>
+        <v>1669.324691547663</v>
       </c>
       <c r="U19" t="n">
-        <v>1380.221824673307</v>
+        <v>1461.992858108404</v>
       </c>
       <c r="V19" t="n">
-        <v>1207.308369902517</v>
+        <v>1289.079403337613</v>
       </c>
       <c r="W19" t="n">
-        <v>999.662233300653</v>
+        <v>1081.43326673575</v>
       </c>
       <c r="X19" t="n">
-        <v>853.4437158377325</v>
+        <v>935.2147492728291</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.4221701292993</v>
+        <v>796.1932035643957</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1812.544339302853</v>
+        <v>1575.9387233604</v>
       </c>
       <c r="C20" t="n">
-        <v>1525.352855797538</v>
+        <v>1288.747239855085</v>
       </c>
       <c r="D20" t="n">
         <v>1248.858190625884</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8409714627369</v>
+        <v>944.8409714627367</v>
       </c>
       <c r="F20" t="n">
-        <v>615.6261001082262</v>
+        <v>615.626100108226</v>
       </c>
       <c r="G20" t="n">
         <v>282.3246833883194</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3297.086186571361</v>
+        <v>3297.086186571362</v>
       </c>
       <c r="T20" t="n">
-        <v>3172.87947239068</v>
+        <v>3172.879472390681</v>
       </c>
       <c r="U20" t="n">
-        <v>3001.120029099613</v>
+        <v>3001.120029099614</v>
       </c>
       <c r="V20" t="n">
-        <v>2751.828175191139</v>
+        <v>2751.82817519114</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.830553356122</v>
+        <v>2480.830553356123</v>
       </c>
       <c r="X20" t="n">
-        <v>2425.741444472593</v>
+        <v>2189.13582853014</v>
       </c>
       <c r="Y20" t="n">
-        <v>2117.373145931878</v>
+        <v>1880.767529989425</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>600.9874798312264</v>
+        <v>682.7585132663235</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8223303384164</v>
+        <v>595.5933637735134</v>
       </c>
       <c r="D22" t="n">
-        <v>445.4767243611775</v>
+        <v>445.4767243611776</v>
       </c>
       <c r="E22" t="n">
-        <v>379.3346642138812</v>
+        <v>297.5636307787845</v>
       </c>
       <c r="F22" t="n">
-        <v>314.2157501510677</v>
+        <v>232.4447167159709</v>
       </c>
       <c r="G22" t="n">
-        <v>146.5129135257866</v>
+        <v>146.5129135257867</v>
       </c>
       <c r="H22" t="n">
-        <v>82.06676017874123</v>
+        <v>82.06676017874128</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,25 +5935,25 @@
         <v>1919.235124281117</v>
       </c>
       <c r="S22" t="n">
-        <v>1809.32027354304</v>
+        <v>1795.763014640111</v>
       </c>
       <c r="T22" t="n">
-        <v>1669.324691547663</v>
+        <v>1655.767432644734</v>
       </c>
       <c r="U22" t="n">
-        <v>1461.992858108404</v>
+        <v>1448.435599205474</v>
       </c>
       <c r="V22" t="n">
-        <v>1289.079403337614</v>
+        <v>1275.522144434684</v>
       </c>
       <c r="W22" t="n">
-        <v>1081.43326673575</v>
+        <v>1067.87600783282</v>
       </c>
       <c r="X22" t="n">
-        <v>921.6574903698995</v>
+        <v>921.6574903698997</v>
       </c>
       <c r="Y22" t="n">
-        <v>782.6359446614662</v>
+        <v>782.6359446614664</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1253.686876665526</v>
       </c>
       <c r="E23" t="n">
-        <v>949.669657502379</v>
+        <v>949.6696575023789</v>
       </c>
       <c r="F23" t="n">
-        <v>620.4547861478683</v>
+        <v>620.4547861478682</v>
       </c>
       <c r="G23" t="n">
         <v>287.1533694279613</v>
@@ -5990,19 +5990,19 @@
         <v>260.2199334308507</v>
       </c>
       <c r="K23" t="n">
-        <v>830.6449230631508</v>
+        <v>594.039307120697</v>
       </c>
       <c r="L23" t="n">
-        <v>1281.679136311559</v>
+        <v>1045.073520369106</v>
       </c>
       <c r="M23" t="n">
-        <v>1815.211040983484</v>
+        <v>1578.60542504103</v>
       </c>
       <c r="N23" t="n">
-        <v>2361.989858042266</v>
+        <v>2125.384242099812</v>
       </c>
       <c r="O23" t="n">
-        <v>2864.962328921603</v>
+        <v>2628.356712979149</v>
       </c>
       <c r="P23" t="n">
         <v>3259.736695278781</v>
@@ -6139,7 +6139,7 @@
         <v>151.3415995654286</v>
       </c>
       <c r="H25" t="n">
-        <v>86.89544621838316</v>
+        <v>86.89544621838317</v>
       </c>
       <c r="I25" t="n">
         <v>71.34080247182531</v>
@@ -6175,10 +6175,10 @@
         <v>1814.148959582682</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.153377587305</v>
+        <v>1674.153377587304</v>
       </c>
       <c r="U25" t="n">
-        <v>1466.821544148045</v>
+        <v>1453.264285245116</v>
       </c>
       <c r="V25" t="n">
         <v>1280.350830474326</v>
@@ -6187,10 +6187,10 @@
         <v>1072.704693872462</v>
       </c>
       <c r="X25" t="n">
-        <v>926.4861764095415</v>
+        <v>844.7151429744447</v>
       </c>
       <c r="Y25" t="n">
-        <v>787.4646307011081</v>
+        <v>705.6935972660114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1301.124196069041</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0382690450737</v>
+        <v>986.0382690450733</v>
       </c>
       <c r="F26" t="n">
-        <v>645.7546898297428</v>
+        <v>645.7546898297425</v>
       </c>
       <c r="G26" t="n">
         <v>301.3845652490158</v>
@@ -6236,16 +6236,16 @@
         <v>1581.767913001264</v>
       </c>
       <c r="N26" t="n">
-        <v>2309.922415300676</v>
+        <v>2201.533534964214</v>
       </c>
       <c r="O26" t="n">
-        <v>2812.894886180013</v>
+        <v>2704.506005843551</v>
       </c>
       <c r="P26" t="n">
-        <v>3207.669252537191</v>
+        <v>3417.861093290496</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.147455046179</v>
+        <v>3666.147455046178</v>
       </c>
       <c r="R26" t="n">
         <v>3725.164521602981</v>
@@ -6254,22 +6254,22 @@
         <v>3685.576178704353</v>
       </c>
       <c r="T26" t="n">
-        <v>3550.300756662852</v>
+        <v>3550.300756662851</v>
       </c>
       <c r="U26" t="n">
-        <v>3367.472605510966</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V26" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W26" t="n">
-        <v>2825.045714045835</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X26" t="n">
-        <v>2522.282281359031</v>
+        <v>2522.28228135903</v>
       </c>
       <c r="Y26" t="n">
-        <v>2202.845274957496</v>
+        <v>2202.845274957495</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.5350284809845</v>
+        <v>949.5350284809848</v>
       </c>
       <c r="C27" t="n">
-        <v>775.0819991998575</v>
+        <v>775.0819991998578</v>
       </c>
       <c r="D27" t="n">
-        <v>626.1475895386062</v>
+        <v>626.1475895386066</v>
       </c>
       <c r="E27" t="n">
-        <v>466.9101345331507</v>
+        <v>466.9101345331511</v>
       </c>
       <c r="F27" t="n">
-        <v>320.3755765600357</v>
+        <v>320.3755765600361</v>
       </c>
       <c r="G27" t="n">
-        <v>184.0124763926538</v>
+        <v>184.0124763926542</v>
       </c>
       <c r="H27" t="n">
-        <v>93.51058203052132</v>
+        <v>93.5105820305217</v>
       </c>
       <c r="I27" t="n">
         <v>74.50329043205963</v>
@@ -6336,7 +6336,7 @@
         <v>2250.819476297068</v>
       </c>
       <c r="U27" t="n">
-        <v>2022.751629431483</v>
+        <v>2022.751629431484</v>
       </c>
       <c r="V27" t="n">
         <v>1787.599521199741</v>
@@ -6345,7 +6345,7 @@
         <v>1533.362164471539</v>
       </c>
       <c r="X27" t="n">
-        <v>1325.510664266006</v>
+        <v>1325.510664266007</v>
       </c>
       <c r="Y27" t="n">
         <v>1117.750365501053</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.6885754217471</v>
+        <v>604.688575421747</v>
       </c>
       <c r="C28" t="n">
-        <v>506.4547180681169</v>
+        <v>506.4547180681167</v>
       </c>
       <c r="D28" t="n">
-        <v>427.0404042300578</v>
+        <v>427.0404042300577</v>
       </c>
       <c r="E28" t="n">
-        <v>349.8296362219414</v>
+        <v>349.8296362219412</v>
       </c>
       <c r="F28" t="n">
-        <v>273.6420142983076</v>
+        <v>273.6420142983075</v>
       </c>
       <c r="G28" t="n">
-        <v>176.6415032473032</v>
+        <v>176.641503247303</v>
       </c>
       <c r="H28" t="n">
         <v>101.1266420394377</v>
@@ -6382,31 +6382,31 @@
         <v>74.50329043205963</v>
       </c>
       <c r="J28" t="n">
-        <v>119.6259228789951</v>
+        <v>119.6259228789952</v>
       </c>
       <c r="K28" t="n">
-        <v>323.6131058278714</v>
+        <v>323.6131058278715</v>
       </c>
       <c r="L28" t="n">
-        <v>640.1729042763675</v>
+        <v>640.1729042763677</v>
       </c>
       <c r="M28" t="n">
-        <v>984.3299498759163</v>
+        <v>984.3299498759166</v>
       </c>
       <c r="N28" t="n">
         <v>1325.738326581781</v>
       </c>
       <c r="O28" t="n">
-        <v>1625.067925502194</v>
+        <v>1625.067925502195</v>
       </c>
       <c r="P28" t="n">
-        <v>1857.675425935853</v>
+        <v>1857.675425935854</v>
       </c>
       <c r="Q28" t="n">
         <v>1935.285722088368</v>
       </c>
       <c r="R28" t="n">
-        <v>1916.157590420172</v>
+        <v>1916.157590420173</v>
       </c>
       <c r="S28" t="n">
         <v>1795.174031821276</v>
@@ -6418,16 +6418,16 @@
         <v>1425.709200664999</v>
       </c>
       <c r="V28" t="n">
-        <v>1241.727038033389</v>
+        <v>1241.727038033388</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.012193570705</v>
+        <v>1023.012193570704</v>
       </c>
       <c r="X28" t="n">
-        <v>865.7249682469637</v>
+        <v>865.7249682469636</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.6347146777102</v>
+        <v>715.6347146777101</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3145.076209411488</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834457</v>
@@ -6491,22 +6491,22 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456133</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644863</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032351</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977796</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246646</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572835</v>
+        <v>190.6561028572836</v>
       </c>
       <c r="H30" t="n">
         <v>100.1542084951511</v>
@@ -6540,10 +6540,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676532</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803188</v>
@@ -6555,19 +6555,19 @@
         <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761697</v>
@@ -6579,13 +6579,13 @@
         <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965681</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6622,13 +6622,13 @@
         <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>331.9210317052861</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>665.7404053951325</v>
+        <v>887.9771891384783</v>
       </c>
       <c r="L32" t="n">
-        <v>1116.774618643541</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M32" t="n">
-        <v>2095.32492147337</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532152</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6859,22 +6859,22 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973127</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982155</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.97243057225</v>
@@ -6886,10 +6886,10 @@
         <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386254</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,22 +6947,22 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668174</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,7 +7026,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.602264964779</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107155</v>
+        <v>571.9707875848507</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722233</v>
+        <v>520.5255827463584</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898301</v>
+        <v>471.2839237378088</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>324.3939762398984</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7123,22 +7123,22 @@
         <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647054</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950187</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,10 +7157,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
@@ -7190,7 +7190,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052367</v>
@@ -7205,13 +7205,13 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650709</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110074</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986717</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919197</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151996</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891711</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649972</v>
+        <v>903.3718743647053</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953106</v>
+        <v>682.5792952211751</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307324</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.2736995386224</v>
+        <v>740.9069705127577</v>
       </c>
       <c r="C43" t="n">
-        <v>529.3375166107155</v>
+        <v>670.6422221586942</v>
       </c>
       <c r="D43" t="n">
-        <v>477.8923117722232</v>
+        <v>520.5255827463584</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898301</v>
+        <v>372.6124891639653</v>
       </c>
       <c r="F43" t="n">
         <v>281.7607052657632</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7597,22 +7597,22 @@
         <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1668.551646658396</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.120214357883</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.10716072584</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.361425262723</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.043308938549</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.9221643688621</v>
+        <v>823.8840007691539</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647794</v>
+        <v>795.5993767202771</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107159</v>
+        <v>725.3346283662136</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983801</v>
+        <v>673.8894235277213</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898304</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657634</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1790.301070122838</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1667.205889266208</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.44877978404</v>
+        <v>1476.774456965695</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151997</v>
+        <v>1320.761403333651</v>
       </c>
       <c r="W46" t="n">
-        <v>934.0185561150364</v>
+        <v>1130.015667870534</v>
       </c>
       <c r="X46" t="n">
-        <v>804.7004397908624</v>
+        <v>1000.69755154636</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.5792952211757</v>
+        <v>878.5764069766733</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>162.2978690040814</v>
+        <v>162.2978690040818</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9914057234465</v>
+        <v>191.9914057234471</v>
       </c>
       <c r="L8" t="n">
-        <v>200.9078089141281</v>
+        <v>200.9078089141289</v>
       </c>
       <c r="M8" t="n">
-        <v>191.5593174558052</v>
+        <v>191.5593174558061</v>
       </c>
       <c r="N8" t="n">
-        <v>189.998534977469</v>
+        <v>189.9985349774699</v>
       </c>
       <c r="O8" t="n">
-        <v>192.8801897110955</v>
+        <v>192.8801897110963</v>
       </c>
       <c r="P8" t="n">
-        <v>199.4682752946444</v>
+        <v>199.4682752946451</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.4517076827624</v>
+        <v>198.451707682763</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.6714251463045</v>
+        <v>115.6714251463047</v>
       </c>
       <c r="K9" t="n">
-        <v>118.7566220496491</v>
+        <v>118.7566220496495</v>
       </c>
       <c r="L9" t="n">
-        <v>112.8924882119093</v>
+        <v>112.8924882119099</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1878168554325</v>
+        <v>112.1878168554331</v>
       </c>
       <c r="N9" t="n">
-        <v>100.6029077587448</v>
+        <v>100.6029077587456</v>
       </c>
       <c r="O9" t="n">
-        <v>114.4762438003198</v>
+        <v>114.4762438003204</v>
       </c>
       <c r="P9" t="n">
-        <v>111.4056277943715</v>
+        <v>111.405627794372</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.8951425903332</v>
+        <v>124.8951425903335</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>120.1534254493254</v>
+        <v>120.1534254493257</v>
       </c>
       <c r="M10" t="n">
-        <v>123.3937454191304</v>
+        <v>123.3937454191308</v>
       </c>
       <c r="N10" t="n">
-        <v>112.5228230971526</v>
+        <v>112.5228230971529</v>
       </c>
       <c r="O10" t="n">
-        <v>124.4513111108509</v>
+        <v>124.4513111108512</v>
       </c>
       <c r="P10" t="n">
-        <v>125.7441125811416</v>
+        <v>125.7441125811419</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>238.9955716590442</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>238.9955716590446</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>183.207762869323</v>
+        <v>73.72404535774467</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.730349362740526e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>334.4868774152271</v>
+        <v>342.9371040273954</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>62.52018570663796</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>117.9051702753175</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>371.7758208812686</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>354.3148709887956</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>370.9723492900498</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>395.9180249594995</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.22974100596383</v>
+        <v>98.22974100596386</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>45.19235048334544</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.896765096433248</v>
+        <v>375.2799178738416</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>156.2888003164158</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>137.6574522360004</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.5909284939572</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.2538174234009</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.7516346068251</v>
+        <v>214.7516346068252</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.9111805959238</v>
+        <v>5.012687230983033</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>320.7048551385297</v>
       </c>
       <c r="E14" t="n">
-        <v>347.9521835901083</v>
+        <v>347.9521835901085</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>29.33849631261972</v>
+        <v>13.81619152870839</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9397836574668</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>217.0169854767487</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.2597521739002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>133.2686346164746</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>114.6372865360591</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.2869260188033</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>61.95176766028813</v>
       </c>
       <c r="T16" t="n">
-        <v>185.5707627940158</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.2395597830276</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>234.2395597830275</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>234.239559783028</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>234.2395597830298</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1429681.578254319</v>
+        <v>1429681.57825432</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1316702.812236784</v>
+        <v>1316702.812236785</v>
       </c>
     </row>
     <row r="9">
@@ -26317,16 +26317,16 @@
         <v>102409.5423396298</v>
       </c>
       <c r="D2" t="n">
-        <v>102411.740227121</v>
+        <v>102411.7402271209</v>
       </c>
       <c r="E2" t="n">
-        <v>87668.50329006893</v>
+        <v>87668.50329006895</v>
       </c>
       <c r="F2" t="n">
         <v>92750.72052004264</v>
       </c>
       <c r="G2" t="n">
-        <v>100299.5376131943</v>
+        <v>100299.5376131944</v>
       </c>
       <c r="H2" t="n">
         <v>100299.5376131943</v>
@@ -26347,7 +26347,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47057.5404456203</v>
+        <v>47057.54044561922</v>
       </c>
       <c r="E3" t="n">
-        <v>1088389.735862814</v>
+        <v>1088389.735862815</v>
       </c>
       <c r="F3" t="n">
-        <v>18416.13255995314</v>
+        <v>18416.13255995304</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487395</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16050.61275434525</v>
+        <v>16050.61275434516</v>
       </c>
       <c r="J3" t="n">
-        <v>10343.07499834436</v>
+        <v>10343.07499834433</v>
       </c>
       <c r="K3" t="n">
-        <v>21373.21069935972</v>
+        <v>21373.21069935964</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487409</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>439892.3619042681</v>
+        <v>439892.3619042685</v>
       </c>
       <c r="E4" t="n">
-        <v>24503.64793445555</v>
+        <v>24503.64793445552</v>
       </c>
       <c r="F4" t="n">
-        <v>47766.5779426786</v>
+        <v>47766.57794267842</v>
       </c>
       <c r="G4" t="n">
+        <v>82151.62309302296</v>
+      </c>
+      <c r="H4" t="n">
         <v>82151.62309302298</v>
       </c>
-      <c r="H4" t="n">
-        <v>82151.62309302299</v>
-      </c>
       <c r="I4" t="n">
-        <v>92167.78410391054</v>
+        <v>92167.78410391056</v>
       </c>
       <c r="J4" t="n">
         <v>91757.75468066178</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462826</v>
+        <v>91012.35309462823</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462834</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="N4" t="n">
         <v>92793.84288319407</v>
       </c>
       <c r="O4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="P4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319407</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34825.44868266343</v>
+        <v>34825.4486826634</v>
       </c>
       <c r="E5" t="n">
         <v>75227.57041053308</v>
@@ -26485,7 +26485,7 @@
         <v>81112.0054811499</v>
       </c>
       <c r="H5" t="n">
-        <v>81112.00548114987</v>
+        <v>81112.00548114988</v>
       </c>
       <c r="I5" t="n">
         <v>84781.80687127773</v>
@@ -26500,7 +26500,7 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388993.4184859077</v>
+        <v>-388997.8320637758</v>
       </c>
       <c r="C6" t="n">
-        <v>-388993.4184859076</v>
+        <v>-388997.8320637757</v>
       </c>
       <c r="D6" t="n">
-        <v>-419363.6108054309</v>
+        <v>-419367.9804255485</v>
       </c>
       <c r="E6" t="n">
-        <v>-1100452.450917734</v>
+        <v>-1100751.685276594</v>
       </c>
       <c r="F6" t="n">
-        <v>-50594.84270335054</v>
+        <v>-50792.43271761011</v>
       </c>
       <c r="G6" t="n">
-        <v>-100544.2002558525</v>
+        <v>-100590.8139282494</v>
       </c>
       <c r="H6" t="n">
-        <v>-62964.09096097857</v>
+        <v>-63010.70463337537</v>
       </c>
       <c r="I6" t="n">
-        <v>-90369.98249649808</v>
+        <v>-90369.98249649799</v>
       </c>
       <c r="J6" t="n">
-        <v>-85734.67631788678</v>
+        <v>-85734.67631788677</v>
       </c>
       <c r="K6" t="n">
-        <v>-99133.28423575871</v>
+        <v>-99133.28423575858</v>
       </c>
       <c r="L6" t="n">
         <v>-115340.1828312732</v>
@@ -26555,13 +26555,13 @@
         <v>-274850.3189491328</v>
       </c>
       <c r="N6" t="n">
-        <v>-72682.21895640851</v>
+        <v>-72682.21895640845</v>
       </c>
       <c r="O6" t="n">
-        <v>-72682.21895640853</v>
+        <v>-72682.21895640854</v>
       </c>
       <c r="P6" t="n">
-        <v>-72682.21895640853</v>
+        <v>-72682.2189564085</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="F2" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="H2" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="I2" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="J2" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810502</v>
@@ -26725,7 +26725,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.9471872781392</v>
+        <v>54.94718727813793</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>891.7600308978164</v>
       </c>
       <c r="J4" t="n">
-        <v>931.2911304007454</v>
+        <v>931.2911304007453</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994142</v>
+        <v>23.0201656999413</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951237</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.9471872781392</v>
+        <v>54.94718727813793</v>
       </c>
       <c r="E3" t="n">
-        <v>1034.829513315159</v>
+        <v>1034.82951331516</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.35857549552406</v>
+        <v>60.35857549552372</v>
       </c>
       <c r="J4" t="n">
-        <v>39.53109950292901</v>
+        <v>39.5310995029289</v>
       </c>
       <c r="K4" t="n">
-        <v>83.04533080786894</v>
+        <v>83.04533080786905</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994142</v>
+        <v>23.0201656999413</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.2125794757179</v>
+        <v>337.212579475718</v>
       </c>
       <c r="I8" t="n">
-        <v>201.9599038918513</v>
+        <v>201.9599038918515</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.9934345125651</v>
+        <v>135.9934345125654</v>
       </c>
       <c r="S8" t="n">
-        <v>203.9864654451374</v>
+        <v>203.9864654451375</v>
       </c>
       <c r="T8" t="n">
         <v>222.1288895146437</v>
@@ -27950,7 +27950,7 @@
         <v>111.0939941762468</v>
       </c>
       <c r="I9" t="n">
-        <v>85.32743077468496</v>
+        <v>85.32743077468506</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.81979280255503</v>
+        <v>92.8197928025552</v>
       </c>
       <c r="S9" t="n">
         <v>169.4878754611688</v>
@@ -28032,10 +28032,10 @@
         <v>152.4707159843717</v>
       </c>
       <c r="J10" t="n">
-        <v>86.353864125491</v>
+        <v>86.35386412549116</v>
       </c>
       <c r="K10" t="n">
-        <v>10.75760570433173</v>
+        <v>10.75760570433199</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.86501797269537</v>
+        <v>77.86501797269555</v>
       </c>
       <c r="R10" t="n">
-        <v>172.8381653398305</v>
+        <v>172.8381653398306</v>
       </c>
       <c r="S10" t="n">
         <v>222.2898151187396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="C11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="D11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="E11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="F11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="G11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="H11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="I11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="T11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="U11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="V11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="W11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="X11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="C13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="D13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="E13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="F13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="G13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="H13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="I13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="J13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="K13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="L13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="M13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="N13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="O13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="P13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="R13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="S13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="T13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="U13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="V13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="W13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="X13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.95802078221199</v>
+        <v>10.95802078221196</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="C14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="D14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="E14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="F14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="G14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="H14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="I14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="T14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="U14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="V14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="W14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="X14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="C16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="D16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="E16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="F16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="G16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="H16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="I16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="J16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="K16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="L16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="M16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="N16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="O16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="P16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="R16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="S16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="T16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="U16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="V16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="W16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="X16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.97818648215341</v>
+        <v>33.97818648215326</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="C17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="D17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="E17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="F17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="G17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="H17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="T17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="U17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="V17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="W17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="X17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="Y17" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="C19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="D19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="F19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="G19" t="n">
-        <v>67.5316367868452</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>80.95332310074585</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.95332310074585</v>
+        <v>67.53163678684575</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="S19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="T19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="U19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="V19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="W19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="X19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="C20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="D20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="E20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="F20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="G20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="H20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="T20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="U20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="V20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="W20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="X20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="Y20" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="C22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="D22" t="n">
-        <v>80.95332310074585</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.95332310074585</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="H22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="I22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="S22" t="n">
-        <v>80.95332310074585</v>
+        <v>67.53163678684597</v>
       </c>
       <c r="T22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="U22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="V22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="W22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="X22" t="n">
-        <v>67.53163678684533</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="C23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="D23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="E23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="F23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="G23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="H23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="T23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="U23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="V23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="W23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="X23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="C25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="D25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="E25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="F25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="I25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="S25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="T25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="U25" t="n">
-        <v>80.95332310074585</v>
+        <v>67.53163678684638</v>
       </c>
       <c r="V25" t="n">
-        <v>67.53163678684592</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="W25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
       <c r="X25" t="n">
-        <v>80.95332310074585</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.95332310074585</v>
+        <v>80.95332310074583</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="C26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="D26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="E26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="F26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="G26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="H26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="T26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="U26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="V26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="W26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="X26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="Y26" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="C28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="D28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="E28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="F28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="G28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="H28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="I28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="S28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="T28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="U28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="V28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="W28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="X28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.99530231853386</v>
+        <v>69.99530231853387</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859082</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
         <v>97.68472022810502</v>
@@ -30150,16 +30150,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371119</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30195,19 +30195,19 @@
         <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>55.47778196371127</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
         <v>97.68472022810502</v>
@@ -30384,13 +30384,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>55.4777819637109</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>97.68472022810502</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>97.68472022810502</v>
@@ -30435,19 +30435,19 @@
         <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.72521440565328</v>
       </c>
       <c r="V40" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>55.47778196371118</v>
+      </c>
+      <c r="G43" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30669,13 +30669,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>55.47778196371104</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>97.68472022810502</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810492</v>
+        <v>54.14548214544428</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371175</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2208932151884991</v>
+        <v>0.220893215188494</v>
       </c>
       <c r="H8" t="n">
-        <v>2.262222640049217</v>
+        <v>2.262222640049165</v>
       </c>
       <c r="I8" t="n">
-        <v>8.515985678554621</v>
+        <v>8.515985678554424</v>
       </c>
       <c r="J8" t="n">
-        <v>18.74803552260489</v>
+        <v>18.74803552260446</v>
       </c>
       <c r="K8" t="n">
-        <v>28.09844532153407</v>
+        <v>28.09844532153342</v>
       </c>
       <c r="L8" t="n">
-        <v>34.85860605585911</v>
+        <v>34.8586060558583</v>
       </c>
       <c r="M8" t="n">
-        <v>38.78691577146758</v>
+        <v>38.78691577146668</v>
       </c>
       <c r="N8" t="n">
-        <v>39.4145286191219</v>
+        <v>39.41452861912099</v>
       </c>
       <c r="O8" t="n">
-        <v>37.21802171059126</v>
+        <v>37.2180217105904</v>
       </c>
       <c r="P8" t="n">
-        <v>31.76472046062518</v>
+        <v>31.76472046062445</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.85398219168705</v>
+        <v>23.8539821916865</v>
       </c>
       <c r="R8" t="n">
-        <v>13.87568342858457</v>
+        <v>13.87568342858425</v>
       </c>
       <c r="S8" t="n">
-        <v>5.033604141107928</v>
+        <v>5.033604141107813</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9669600494876553</v>
+        <v>0.9669600494876331</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01767145721507992</v>
+        <v>0.01767145721507952</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1181882896171296</v>
+        <v>0.1181882896171269</v>
       </c>
       <c r="H9" t="n">
-        <v>1.141450060249646</v>
+        <v>1.14145006024962</v>
       </c>
       <c r="I9" t="n">
-        <v>4.069202076730121</v>
+        <v>4.069202076730027</v>
       </c>
       <c r="J9" t="n">
-        <v>11.16620152036223</v>
+        <v>11.16620152036197</v>
       </c>
       <c r="K9" t="n">
-        <v>19.08481692470992</v>
+        <v>19.08481692470948</v>
       </c>
       <c r="L9" t="n">
-        <v>25.66189156796492</v>
+        <v>25.66189156796433</v>
       </c>
       <c r="M9" t="n">
-        <v>29.94621706658586</v>
+        <v>29.94621706658517</v>
       </c>
       <c r="N9" t="n">
-        <v>30.73880432458846</v>
+        <v>30.73880432458775</v>
       </c>
       <c r="O9" t="n">
-        <v>28.12000064412469</v>
+        <v>28.12000064412404</v>
       </c>
       <c r="P9" t="n">
-        <v>22.56877961995872</v>
+        <v>22.5687796199582</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.08663149568833</v>
+        <v>15.08663149568799</v>
       </c>
       <c r="R9" t="n">
-        <v>7.338041350088102</v>
+        <v>7.338041350087932</v>
       </c>
       <c r="S9" t="n">
-        <v>2.195295642669051</v>
+        <v>2.195295642669</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4763817463076406</v>
+        <v>0.4763817463076296</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007775545369548002</v>
+        <v>0.007775545369547824</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09908509181303789</v>
+        <v>0.0990850918130356</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8809565435741011</v>
+        <v>0.8809565435740808</v>
       </c>
       <c r="I10" t="n">
-        <v>2.979758942886631</v>
+        <v>2.979758942886563</v>
       </c>
       <c r="J10" t="n">
-        <v>7.005315991181778</v>
+        <v>7.005315991181617</v>
       </c>
       <c r="K10" t="n">
-        <v>11.51188612155113</v>
+        <v>11.51188612155086</v>
       </c>
       <c r="L10" t="n">
-        <v>14.73125083191293</v>
+        <v>14.73125083191259</v>
       </c>
       <c r="M10" t="n">
-        <v>15.53203852847465</v>
+        <v>15.5320385284743</v>
       </c>
       <c r="N10" t="n">
-        <v>15.16272136808062</v>
+        <v>15.16272136808027</v>
       </c>
       <c r="O10" t="n">
-        <v>14.00522734099194</v>
+        <v>14.00522734099162</v>
       </c>
       <c r="P10" t="n">
-        <v>11.98389146800596</v>
+        <v>11.98389146800568</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.297025278999019</v>
+        <v>8.297025278998827</v>
       </c>
       <c r="R10" t="n">
-        <v>4.455226037338957</v>
+        <v>4.455226037338854</v>
       </c>
       <c r="S10" t="n">
-        <v>1.726782918232669</v>
+        <v>1.726782918232629</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4233635741102527</v>
+        <v>0.4233635741102429</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005404641371620254</v>
+        <v>0.00540464137162013</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33746,10 +33746,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035316</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -34463,7 +34463,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.53643739527824</v>
+        <v>56.53643739527818</v>
       </c>
       <c r="K13" t="n">
-        <v>217.0056803265316</v>
+        <v>217.0056803265315</v>
       </c>
       <c r="L13" t="n">
         <v>330.7153929524101</v>
@@ -35577,7 +35577,7 @@
         <v>358.5914001756958</v>
       </c>
       <c r="N13" t="n">
-        <v>355.8149669497521</v>
+        <v>355.814966949752</v>
       </c>
       <c r="O13" t="n">
         <v>313.3111510048518</v>
@@ -35586,7 +35586,7 @@
         <v>245.9150919273224</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.35225932010565</v>
+        <v>89.35225932010562</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5566030952196</v>
+        <v>79.55660309521949</v>
       </c>
       <c r="K16" t="n">
-        <v>240.0258460264729</v>
+        <v>240.0258460264728</v>
       </c>
       <c r="L16" t="n">
-        <v>353.7355586523515</v>
+        <v>353.7355586523514</v>
       </c>
       <c r="M16" t="n">
-        <v>381.6115658756372</v>
+        <v>381.6115658756371</v>
       </c>
       <c r="N16" t="n">
-        <v>378.8351326496935</v>
+        <v>378.8351326496933</v>
       </c>
       <c r="O16" t="n">
-        <v>336.3313167047932</v>
+        <v>336.331316704793</v>
       </c>
       <c r="P16" t="n">
-        <v>268.9352576272638</v>
+        <v>268.9352576272637</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.372425020047</v>
+        <v>112.3724250200469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>576.1868582144446</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36373,7 +36373,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>637.7575578784163</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36604,16 +36604,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>735.5095982822343</v>
+        <v>626.0258807706559</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>886.7887128281386</v>
+        <v>895.2389394403069</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>253.3071866753505</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>455.0964568307178</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37087,7 +37087,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629103</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37242,10 +37242,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37394,10 +37394,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38026,10 +38026,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129133</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38096,7 +38096,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060957</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>
